--- a/src/test/example.xlsx
+++ b/src/test/example.xlsx
@@ -73,13 +73,13 @@
     <t>landing_introduction</t>
   </si>
   <si>
-    <t>Tap \"Agree &amp;amp; Continue\" to accept  the %1$s and %2$s</t>
+    <t>Tap "Agree &amp; Continue" to accept  the %1$s and %2$s</t>
   </si>
   <si>
-    <t>点击 \"同意并继续\" 接受 Mixin %1$s和%2$s</t>
+    <t>点击 "同意并继续" 接受 Mixin %1$s和%2$s</t>
   </si>
   <si>
-    <t>\"Agree &amp;amp; Continue\"をタップして%1$sと%2$sを受諾してください。</t>
+    <t>"Agree &amp; Continue"をタップして%1$sと%2$sを受諾してください。</t>
   </si>
   <si>
     <t>wallet_transaction_tip</t>
